--- a/data/nzd0111/nzd0111.xlsx
+++ b/data/nzd0111/nzd0111.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H400"/>
+  <dimension ref="A1:H402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11801,6 +11801,66 @@
         <v>372.1766666666667</v>
       </c>
       <c r="H400" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:12:00+00:00</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>387.84</v>
+      </c>
+      <c r="C401" t="n">
+        <v>382.2133333333333</v>
+      </c>
+      <c r="D401" t="n">
+        <v>378.32</v>
+      </c>
+      <c r="E401" t="n">
+        <v>370.1</v>
+      </c>
+      <c r="F401" t="n">
+        <v>368.61</v>
+      </c>
+      <c r="G401" t="n">
+        <v>387.53</v>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>410.57</v>
+      </c>
+      <c r="C402" t="n">
+        <v>410.7555555555555</v>
+      </c>
+      <c r="D402" t="n">
+        <v>398.86</v>
+      </c>
+      <c r="E402" t="n">
+        <v>407.8</v>
+      </c>
+      <c r="F402" t="n">
+        <v>399.14</v>
+      </c>
+      <c r="G402" t="n">
+        <v>395.4866666666667</v>
+      </c>
+      <c r="H402" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11817,7 +11877,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B538"/>
+  <dimension ref="A1:B543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17205,6 +17265,56 @@
       </c>
       <c r="B538" t="n">
         <v>1.12</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>-0.55</v>
       </c>
     </row>
   </sheetData>
@@ -17373,28 +17483,28 @@
         <v>0.0549</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08376131686429096</v>
+        <v>0.08585910911953953</v>
       </c>
       <c r="J2" t="n">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K2" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003026098162975721</v>
+        <v>0.003202640518998434</v>
       </c>
       <c r="M2" t="n">
-        <v>8.243640319922823</v>
+        <v>8.263995486358075</v>
       </c>
       <c r="N2" t="n">
-        <v>117.4336810729952</v>
+        <v>117.5249731211816</v>
       </c>
       <c r="O2" t="n">
-        <v>10.83668219857883</v>
+        <v>10.84089355732181</v>
       </c>
       <c r="P2" t="n">
-        <v>395.605184333303</v>
+        <v>395.5841717080446</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -17450,28 +17560,28 @@
         <v>0.0473</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1113328714593594</v>
+        <v>0.1233189029691378</v>
       </c>
       <c r="J3" t="n">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K3" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007918107598431812</v>
+        <v>0.009618759650464881</v>
       </c>
       <c r="M3" t="n">
-        <v>7.057116312713913</v>
+        <v>7.095675091999687</v>
       </c>
       <c r="N3" t="n">
-        <v>82.20966185907442</v>
+        <v>83.48562664474437</v>
       </c>
       <c r="O3" t="n">
-        <v>9.066954387172929</v>
+        <v>9.137046932392565</v>
       </c>
       <c r="P3" t="n">
-        <v>383.4717964558929</v>
+        <v>383.3573291223033</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -17527,28 +17637,28 @@
         <v>0.0576</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1959642456716633</v>
+        <v>0.1986820911865108</v>
       </c>
       <c r="J4" t="n">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K4" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02324313827980129</v>
+        <v>0.02399913447634983</v>
       </c>
       <c r="M4" t="n">
-        <v>7.613216402398312</v>
+        <v>7.627390800781845</v>
       </c>
       <c r="N4" t="n">
-        <v>86.50838984495701</v>
+        <v>86.64749644127052</v>
       </c>
       <c r="O4" t="n">
-        <v>9.300988648791966</v>
+        <v>9.308463699304548</v>
       </c>
       <c r="P4" t="n">
-        <v>381.3245262988446</v>
+        <v>381.2983892804299</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -17604,28 +17714,28 @@
         <v>0.0442</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1334431324170114</v>
+        <v>0.132995663609748</v>
       </c>
       <c r="J5" t="n">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K5" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01077734082029691</v>
+        <v>0.01059724638596371</v>
       </c>
       <c r="M5" t="n">
-        <v>7.344208336968308</v>
+        <v>7.407978025166959</v>
       </c>
       <c r="N5" t="n">
-        <v>86.8823332014852</v>
+        <v>88.3736795847295</v>
       </c>
       <c r="O5" t="n">
-        <v>9.321069316418862</v>
+        <v>9.400727609325221</v>
       </c>
       <c r="P5" t="n">
-        <v>386.0463549507134</v>
+        <v>386.0502081506896</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -17681,28 +17791,28 @@
         <v>0.054</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.0005085645877951678</v>
+        <v>0.003285818699215831</v>
       </c>
       <c r="J6" t="n">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K6" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L6" t="n">
-        <v>1.301088653482552e-07</v>
+        <v>5.428557815712054e-06</v>
       </c>
       <c r="M6" t="n">
-        <v>7.761867411363411</v>
+        <v>7.802725483411509</v>
       </c>
       <c r="N6" t="n">
-        <v>105.2927893182198</v>
+        <v>106.0582892330211</v>
       </c>
       <c r="O6" t="n">
-        <v>10.26122747619503</v>
+        <v>10.29846052733228</v>
       </c>
       <c r="P6" t="n">
-        <v>380.567145164792</v>
+        <v>380.5305029277267</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -17758,28 +17868,28 @@
         <v>0.0649</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04581591536794202</v>
+        <v>0.05438224072534417</v>
       </c>
       <c r="J7" t="n">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K7" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001153721385611428</v>
+        <v>0.001639335850806556</v>
       </c>
       <c r="M7" t="n">
-        <v>7.359978197130179</v>
+        <v>7.355505496504247</v>
       </c>
       <c r="N7" t="n">
-        <v>93.74699600840347</v>
+        <v>93.61127233289989</v>
       </c>
       <c r="O7" t="n">
-        <v>9.682303238816861</v>
+        <v>9.675291847427648</v>
       </c>
       <c r="P7" t="n">
-        <v>382.993568150471</v>
+        <v>382.9115591698812</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -17816,7 +17926,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H400"/>
+  <dimension ref="A1:H402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33340,6 +33450,90 @@
         </is>
       </c>
     </row>
+    <row r="401">
+      <c r="A401" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:12:00+00:00</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>-36.04796264235494,174.564762224203</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>-36.04814999358312,174.56563181000158</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>-36.048313699148316,174.56650152809755</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>-36.048476022089076,174.56737272700585</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>-36.04850972478241,174.56826130808338</t>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>-36.04828467811673,174.56913131285333</t>
+        </is>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>-36.04776108909492,174.56480750774878</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>-36.047896655025944,174.56568698150022</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>-36.04813040368268,174.56653363434333</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>-36.048136924674495,174.56739990391367</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>-36.04823470854891,174.56824937682723</t>
+        </is>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>-36.048213234469316,174.56912358674538</t>
+        </is>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0111/nzd0111.xlsx
+++ b/data/nzd0111/nzd0111.xlsx
@@ -17328,7 +17328,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17419,35 +17419,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -17506,27 +17511,28 @@
       <c r="P2" t="n">
         <v>395.5841717080446</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.56398952230057 -36.051401725220636, 174.56582700931682 -36.043223118315325)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.5639895223006</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.05140172522064</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.5658270093168</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.04322311831532</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.5649082658087</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.04731242176798</v>
       </c>
     </row>
@@ -17583,27 +17589,28 @@
       <c r="P3" t="n">
         <v>383.3573291223033</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.5648929686484 -36.051542486972636, 174.56667579287037 -36.04335593688018)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.5648929686484</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.05154248697264</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.5666757928704</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.04335593688018</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.5657843807594</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.04744921192641</v>
       </c>
     </row>
@@ -17660,27 +17667,28 @@
       <c r="P4" t="n">
         <v>381.2983892804299</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.56591014910302 -36.05168976062111, 174.5673518082181 -36.043459165615545)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.565910149103</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.05168976062111</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.5673518082181</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.04345916561554</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.5666309786606</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.04757446311832</v>
       </c>
     </row>
@@ -17737,27 +17745,28 @@
       <c r="P5" t="n">
         <v>386.0502081506896</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.56710592245665 -36.051804932309985, 174.56777076990474 -36.04350925292049)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.5671059224566</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-36.05180493230998</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.5677707699047</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-36.04350925292049</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.5674383461807</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-36.04765709261524</v>
       </c>
     </row>
@@ -17814,27 +17823,28 @@
       <c r="P6" t="n">
         <v>380.5305029277267</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.56840537185715 -36.05183018651475, 174.5680449471967 -36.043522163773574)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.5684053718572</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-36.05183018651475</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.5680449471967</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-36.04352216377357</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.5682251595269</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-36.04767617514416</v>
       </c>
     </row>
@@ -17891,27 +17901,28 @@
       <c r="P7" t="n">
         <v>382.9115591698812</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.56950763330295 -36.051764343886, 174.56861207948347 -36.043482964491226)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.5695076333029</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-36.051764343886</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.5686120794835</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-36.04348296449123</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.5690598563932</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-36.04762365418861</v>
       </c>
     </row>

--- a/data/nzd0111/nzd0111.xlsx
+++ b/data/nzd0111/nzd0111.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H402"/>
+  <dimension ref="A1:H404"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11863,6 +11863,66 @@
       <c r="H402" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>394.38</v>
+      </c>
+      <c r="C403" t="n">
+        <v>385.0511111111111</v>
+      </c>
+      <c r="D403" t="n">
+        <v>382.42</v>
+      </c>
+      <c r="E403" t="n">
+        <v>386.19</v>
+      </c>
+      <c r="F403" t="n">
+        <v>376.16</v>
+      </c>
+      <c r="G403" t="n">
+        <v>380.9833333333333</v>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>373.47</v>
+      </c>
+      <c r="C404" t="n">
+        <v>373.1888888888889</v>
+      </c>
+      <c r="D404" t="n">
+        <v>368.47</v>
+      </c>
+      <c r="E404" t="n">
+        <v>376.71</v>
+      </c>
+      <c r="F404" t="n">
+        <v>369.56</v>
+      </c>
+      <c r="G404" t="n">
+        <v>367.5066666666667</v>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -11877,7 +11937,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B543"/>
+  <dimension ref="A1:B545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17315,6 +17375,26 @@
       </c>
       <c r="B543" t="n">
         <v>-0.55</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>0.31</v>
       </c>
     </row>
   </sheetData>
@@ -17488,28 +17568,28 @@
         <v>0.0549</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08585910911953953</v>
+        <v>0.0666440921481246</v>
       </c>
       <c r="J2" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K2" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003202640518998434</v>
+        <v>0.001929467918218242</v>
       </c>
       <c r="M2" t="n">
-        <v>8.263995486358075</v>
+        <v>8.302613468857571</v>
       </c>
       <c r="N2" t="n">
-        <v>117.5249731211816</v>
+        <v>118.7075240626459</v>
       </c>
       <c r="O2" t="n">
-        <v>10.84089355732181</v>
+        <v>10.89529825487333</v>
       </c>
       <c r="P2" t="n">
-        <v>395.5841717080446</v>
+        <v>395.7765540577024</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -17566,28 +17646,28 @@
         <v>0.0473</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1233189029691378</v>
+        <v>0.1145769513677078</v>
       </c>
       <c r="J3" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K3" t="n">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L3" t="n">
-        <v>0.009618759650464881</v>
+        <v>0.008374519085714072</v>
       </c>
       <c r="M3" t="n">
-        <v>7.095675091999687</v>
+        <v>7.098539071400958</v>
       </c>
       <c r="N3" t="n">
-        <v>83.48562664474437</v>
+        <v>83.51641239973006</v>
       </c>
       <c r="O3" t="n">
-        <v>9.137046932392565</v>
+        <v>9.138731443681342</v>
       </c>
       <c r="P3" t="n">
-        <v>383.3573291223033</v>
+        <v>383.4418181401057</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -17644,28 +17724,28 @@
         <v>0.0576</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1986820911865108</v>
+        <v>0.1858591874232363</v>
       </c>
       <c r="J4" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K4" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02399913447634983</v>
+        <v>0.02110621793497469</v>
       </c>
       <c r="M4" t="n">
-        <v>7.627390800781845</v>
+        <v>7.650853049725074</v>
       </c>
       <c r="N4" t="n">
-        <v>86.64749644127052</v>
+        <v>87.10645661741108</v>
       </c>
       <c r="O4" t="n">
-        <v>9.308463699304548</v>
+        <v>9.333083982125688</v>
       </c>
       <c r="P4" t="n">
-        <v>381.2983892804299</v>
+        <v>381.4224394402244</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -17722,28 +17802,28 @@
         <v>0.0442</v>
       </c>
       <c r="I5" t="n">
-        <v>0.132995663609748</v>
+        <v>0.1239044917556085</v>
       </c>
       <c r="J5" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K5" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01059724638596371</v>
+        <v>0.009278123309705122</v>
       </c>
       <c r="M5" t="n">
-        <v>7.407978025166959</v>
+        <v>7.408773603350847</v>
       </c>
       <c r="N5" t="n">
-        <v>88.3736795847295</v>
+        <v>88.35768318404357</v>
       </c>
       <c r="O5" t="n">
-        <v>9.400727609325221</v>
+        <v>9.399876764300879</v>
       </c>
       <c r="P5" t="n">
-        <v>386.0502081506896</v>
+        <v>386.1384226555531</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -17800,28 +17880,28 @@
         <v>0.054</v>
       </c>
       <c r="I6" t="n">
-        <v>0.003285818699215831</v>
+        <v>-0.005510363899065193</v>
       </c>
       <c r="J6" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K6" t="n">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L6" t="n">
-        <v>5.428557815712054e-06</v>
+        <v>1.540625342655311e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>7.802725483411509</v>
+        <v>7.803073296163999</v>
       </c>
       <c r="N6" t="n">
-        <v>106.0582892330211</v>
+        <v>105.8598342205764</v>
       </c>
       <c r="O6" t="n">
-        <v>10.29846052733228</v>
+        <v>10.28882083722796</v>
       </c>
       <c r="P6" t="n">
-        <v>380.5305029277267</v>
+        <v>380.6159088122263</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -17878,28 +17958,28 @@
         <v>0.0649</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05438224072534417</v>
+        <v>0.04257054503561082</v>
       </c>
       <c r="J7" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K7" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001639335850806556</v>
+        <v>0.001010242235059855</v>
       </c>
       <c r="M7" t="n">
-        <v>7.355505496504247</v>
+        <v>7.375459568874646</v>
       </c>
       <c r="N7" t="n">
-        <v>93.61127233289989</v>
+        <v>93.88913062603487</v>
       </c>
       <c r="O7" t="n">
-        <v>9.675291847427648</v>
+        <v>9.689640376507008</v>
       </c>
       <c r="P7" t="n">
-        <v>382.9115591698812</v>
+        <v>383.0261050665648</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -17937,7 +18017,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H402"/>
+  <dimension ref="A1:H404"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33545,6 +33625,90 @@
         </is>
       </c>
     </row>
+    <row r="403">
+      <c r="A403" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>-36.047904650349714,174.5647752534544</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>-36.048124805688225,174.56563729537922</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>-36.04827711144666,174.5665079368525</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>-36.0483312985529,174.56738432587244</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>-36.04844171389085,174.56825835749962</t>
+        </is>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>-36.04834346124222,174.56913766983084</t>
+        </is>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>-36.048090065150205,174.56473359564853</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>-36.04823009384852,174.56561436587808</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>-36.048401598868935,174.56648613143292</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>-36.04841656761006,174.56737749198854</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>-36.04850116712061,174.5682609368175</t>
+        </is>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>-36.048464469475086,174.56915075604707</t>
+        </is>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0111/nzd0111.xlsx
+++ b/data/nzd0111/nzd0111.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H404"/>
+  <dimension ref="A1:H407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11923,6 +11923,94 @@
       <c r="H404" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:11:22+00:00</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>392.56</v>
+      </c>
+      <c r="C405" t="n">
+        <v>377.4988888888889</v>
+      </c>
+      <c r="D405" t="n">
+        <v>378.46</v>
+      </c>
+      <c r="E405" t="n">
+        <v>384.8</v>
+      </c>
+      <c r="F405" t="n">
+        <v>373.64</v>
+      </c>
+      <c r="G405" t="n">
+        <v>382.4866666666667</v>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr"/>
+      <c r="C406" t="n">
+        <v>391.8555555555556</v>
+      </c>
+      <c r="D406" t="n">
+        <v>396.59</v>
+      </c>
+      <c r="E406" t="n">
+        <v>399.07</v>
+      </c>
+      <c r="F406" t="n">
+        <v>392.37</v>
+      </c>
+      <c r="G406" t="n">
+        <v>400.3366666666667</v>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>396.92</v>
+      </c>
+      <c r="C407" t="n">
+        <v>386.8344444444445</v>
+      </c>
+      <c r="D407" t="n">
+        <v>385.3</v>
+      </c>
+      <c r="E407" t="n">
+        <v>383.63</v>
+      </c>
+      <c r="F407" t="n">
+        <v>379.0100000000001</v>
+      </c>
+      <c r="G407" t="n">
+        <v>379.1133333333333</v>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -11937,7 +12025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B545"/>
+  <dimension ref="A1:B550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17395,6 +17483,56 @@
       </c>
       <c r="B545" t="n">
         <v>0.31</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>-0.61</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>0.83</v>
       </c>
     </row>
   </sheetData>
@@ -17568,28 +17706,28 @@
         <v>0.0549</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0666440921481246</v>
+        <v>0.06288620810458809</v>
       </c>
       <c r="J2" t="n">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="K2" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001929467918218242</v>
+        <v>0.00174334982155222</v>
       </c>
       <c r="M2" t="n">
-        <v>8.302613468857571</v>
+        <v>8.266699705313302</v>
       </c>
       <c r="N2" t="n">
-        <v>118.7075240626459</v>
+        <v>118.0111073320065</v>
       </c>
       <c r="O2" t="n">
-        <v>10.89529825487333</v>
+        <v>10.86329173556554</v>
       </c>
       <c r="P2" t="n">
-        <v>395.7765540577024</v>
+        <v>395.8142963986757</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -17646,28 +17784,28 @@
         <v>0.0473</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1145769513677078</v>
+        <v>0.1128607507410867</v>
       </c>
       <c r="J3" t="n">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="K3" t="n">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L3" t="n">
-        <v>0.008374519085714072</v>
+        <v>0.008257982488550586</v>
       </c>
       <c r="M3" t="n">
-        <v>7.098539071400958</v>
+        <v>7.080529417884133</v>
       </c>
       <c r="N3" t="n">
-        <v>83.51641239973006</v>
+        <v>83.11767153856107</v>
       </c>
       <c r="O3" t="n">
-        <v>9.138731443681342</v>
+        <v>9.116889356494411</v>
       </c>
       <c r="P3" t="n">
-        <v>383.4418181401057</v>
+        <v>383.4584190784636</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -17724,28 +17862,28 @@
         <v>0.0576</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1858591874232363</v>
+        <v>0.1868621022218775</v>
       </c>
       <c r="J4" t="n">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="K4" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02110621793497469</v>
+        <v>0.0216201104935605</v>
       </c>
       <c r="M4" t="n">
-        <v>7.650853049725074</v>
+        <v>7.639373215669782</v>
       </c>
       <c r="N4" t="n">
-        <v>87.10645661741108</v>
+        <v>86.84144800027454</v>
       </c>
       <c r="O4" t="n">
-        <v>9.333083982125688</v>
+        <v>9.318875897889967</v>
       </c>
       <c r="P4" t="n">
-        <v>381.4224394402244</v>
+        <v>381.4126578624779</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -17802,28 +17940,28 @@
         <v>0.0442</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1239044917556085</v>
+        <v>0.1236349738039048</v>
       </c>
       <c r="J5" t="n">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="K5" t="n">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="L5" t="n">
-        <v>0.009278123309705122</v>
+        <v>0.009369218307447191</v>
       </c>
       <c r="M5" t="n">
-        <v>7.408773603350847</v>
+        <v>7.402515854713158</v>
       </c>
       <c r="N5" t="n">
-        <v>88.35768318404357</v>
+        <v>88.03660652328455</v>
       </c>
       <c r="O5" t="n">
-        <v>9.399876764300879</v>
+        <v>9.382782451026165</v>
       </c>
       <c r="P5" t="n">
-        <v>386.1384226555531</v>
+        <v>386.1410550631139</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -17880,28 +18018,28 @@
         <v>0.054</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.005510363899065193</v>
+        <v>-0.003501676752165971</v>
       </c>
       <c r="J6" t="n">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="K6" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="L6" t="n">
-        <v>1.540625342655311e-05</v>
+        <v>6.308713519143083e-06</v>
       </c>
       <c r="M6" t="n">
-        <v>7.803073296163999</v>
+        <v>7.794259252351281</v>
       </c>
       <c r="N6" t="n">
-        <v>105.8598342205764</v>
+        <v>105.5128781461841</v>
       </c>
       <c r="O6" t="n">
-        <v>10.28882083722796</v>
+        <v>10.27194617130484</v>
       </c>
       <c r="P6" t="n">
-        <v>380.6159088122263</v>
+        <v>380.5962950098659</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -17958,28 +18096,28 @@
         <v>0.0649</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04257054503561082</v>
+        <v>0.04807432026307803</v>
       </c>
       <c r="J7" t="n">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="K7" t="n">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001010242235059855</v>
+        <v>0.001302916573234558</v>
       </c>
       <c r="M7" t="n">
-        <v>7.375459568874646</v>
+        <v>7.375046390120014</v>
       </c>
       <c r="N7" t="n">
-        <v>93.88913062603487</v>
+        <v>93.91117528919756</v>
       </c>
       <c r="O7" t="n">
-        <v>9.689640376507008</v>
+        <v>9.690777847479405</v>
       </c>
       <c r="P7" t="n">
-        <v>383.0261050665648</v>
+        <v>382.9725451712929</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -18017,7 +18155,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H404"/>
+  <dimension ref="A1:H407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33709,6 +33847,128 @@
         </is>
       </c>
     </row>
+    <row r="405">
+      <c r="A405" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:11:22+00:00</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>-36.0479207887978,174.56477162757886</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>-36.048191838624845,174.56562269705117</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>-36.048312449812165,174.56650174693317</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>-36.04834380108351,174.56738332385854</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>-36.04846441421503,174.56825934232944</t>
+        </is>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>-36.04832996267327,174.5691362100555</t>
+        </is>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr"/>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>-36.048064409967346,174.56565044824498</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>-36.048150660777,174.56653008609388</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>-36.048215447764484,174.56739361070927</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>-36.0482956931523,174.5682520225623</t>
+        </is>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>-36.04816968586902,174.56911887729086</t>
+        </is>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>-36.04788212746043,174.56478031373993</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>-36.048108976960094,174.56564074253149</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>-36.04825141081694,174.56651243860887</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>-36.04835432479631,174.56738248043655</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>-36.04841604090505,174.568257243705</t>
+        </is>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>-36.04836025214497,174.56913948564977</t>
+        </is>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0111/nzd0111.xlsx
+++ b/data/nzd0111/nzd0111.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12025,7 +12025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B550"/>
+  <dimension ref="A1:B551"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17533,6 +17533,16 @@
       </c>
       <c r="B550" t="n">
         <v>0.83</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
+        <v>-0.72</v>
       </c>
     </row>
   </sheetData>

--- a/data/nzd0111/nzd0111.xlsx
+++ b/data/nzd0111/nzd0111.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H407"/>
+  <dimension ref="A1:H408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12009,6 +12009,36 @@
         <v>379.1133333333333</v>
       </c>
       <c r="H407" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:18+00:00</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>395.8</v>
+      </c>
+      <c r="C408" t="n">
+        <v>387.9311111111111</v>
+      </c>
+      <c r="D408" t="n">
+        <v>393.45</v>
+      </c>
+      <c r="E408" t="n">
+        <v>394.82</v>
+      </c>
+      <c r="F408" t="n">
+        <v>394.42</v>
+      </c>
+      <c r="G408" t="n">
+        <v>396.3633333333333</v>
+      </c>
+      <c r="H408" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -12025,7 +12055,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B551"/>
+  <dimension ref="A1:B553"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17543,6 +17573,26 @@
       </c>
       <c r="B551" t="n">
         <v>-0.72</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B552" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B553" t="n">
+        <v>-0.85</v>
       </c>
     </row>
   </sheetData>
@@ -17716,28 +17766,28 @@
         <v>0.0549</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06288620810458809</v>
+        <v>0.06176851804682688</v>
       </c>
       <c r="J2" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K2" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00174334982155222</v>
+        <v>0.001694601615552127</v>
       </c>
       <c r="M2" t="n">
-        <v>8.266699705313302</v>
+        <v>8.245160267287279</v>
       </c>
       <c r="N2" t="n">
-        <v>118.0111073320065</v>
+        <v>117.6353563457821</v>
       </c>
       <c r="O2" t="n">
-        <v>10.86329173556554</v>
+        <v>10.84598341994778</v>
       </c>
       <c r="P2" t="n">
-        <v>395.8142963986757</v>
+        <v>395.8255743123366</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -17794,28 +17844,28 @@
         <v>0.0473</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1128607507410867</v>
+        <v>0.1137615221569259</v>
       </c>
       <c r="J3" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K3" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L3" t="n">
-        <v>0.008257982488550586</v>
+        <v>0.008443031559016267</v>
       </c>
       <c r="M3" t="n">
-        <v>7.080529417884133</v>
+        <v>7.06481700735403</v>
       </c>
       <c r="N3" t="n">
-        <v>83.11767153856107</v>
+        <v>82.89094938886997</v>
       </c>
       <c r="O3" t="n">
-        <v>9.116889356494411</v>
+        <v>9.104446682191618</v>
       </c>
       <c r="P3" t="n">
-        <v>383.4584190784636</v>
+        <v>383.4496436143944</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -17872,28 +17922,28 @@
         <v>0.0576</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1868621022218775</v>
+        <v>0.190998529254433</v>
       </c>
       <c r="J4" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K4" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0216201104935605</v>
+        <v>0.02267025861466576</v>
       </c>
       <c r="M4" t="n">
-        <v>7.639373215669782</v>
+        <v>7.63677718842788</v>
       </c>
       <c r="N4" t="n">
-        <v>86.84144800027454</v>
+        <v>86.7408316161857</v>
       </c>
       <c r="O4" t="n">
-        <v>9.318875897889967</v>
+        <v>9.313475807462309</v>
       </c>
       <c r="P4" t="n">
-        <v>381.4126578624779</v>
+        <v>381.3723073323989</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -17950,28 +18000,28 @@
         <v>0.0442</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1236349738039048</v>
+        <v>0.1266876802883437</v>
       </c>
       <c r="J5" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K5" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L5" t="n">
-        <v>0.009369218307447191</v>
+        <v>0.009884772292082511</v>
       </c>
       <c r="M5" t="n">
-        <v>7.402515854713158</v>
+        <v>7.39803833429559</v>
       </c>
       <c r="N5" t="n">
-        <v>88.03660652328455</v>
+        <v>87.87756322400011</v>
       </c>
       <c r="O5" t="n">
-        <v>9.382782451026165</v>
+        <v>9.374303346062582</v>
       </c>
       <c r="P5" t="n">
-        <v>386.1410550631139</v>
+        <v>386.1111895966232</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -18028,28 +18078,28 @@
         <v>0.054</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.003501676752165971</v>
+        <v>0.004237522229387817</v>
       </c>
       <c r="J6" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K6" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L6" t="n">
-        <v>6.308713519143083e-06</v>
+        <v>9.250690399698058e-06</v>
       </c>
       <c r="M6" t="n">
-        <v>7.794259252351281</v>
+        <v>7.810341830488688</v>
       </c>
       <c r="N6" t="n">
-        <v>105.5128781461841</v>
+        <v>105.7475616513904</v>
       </c>
       <c r="O6" t="n">
-        <v>10.27194617130484</v>
+        <v>10.28336334335174</v>
       </c>
       <c r="P6" t="n">
-        <v>380.5962950098659</v>
+        <v>380.5205309360551</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -18106,28 +18156,28 @@
         <v>0.0649</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04807432026307803</v>
+        <v>0.05505583278630734</v>
       </c>
       <c r="J7" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K7" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001302916573234558</v>
+        <v>0.001712206162579832</v>
       </c>
       <c r="M7" t="n">
-        <v>7.375046390120014</v>
+        <v>7.385015100358717</v>
       </c>
       <c r="N7" t="n">
-        <v>93.91117528919756</v>
+        <v>94.05184864857345</v>
       </c>
       <c r="O7" t="n">
-        <v>9.690777847479405</v>
+        <v>9.698033236103775</v>
       </c>
       <c r="P7" t="n">
-        <v>382.9725451712929</v>
+        <v>382.9043233340803</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -18165,7 +18215,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H407"/>
+  <dimension ref="A1:H408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33979,6 +34029,48 @@
         </is>
       </c>
     </row>
+    <row r="408">
+      <c r="A408" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:18+00:00</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>-36.04789205881322,174.56477808243326</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>-36.048099243031906,174.56564286236843</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>-36.0481786816033,174.56652517794</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>-36.048253674927054,174.56739054700378</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>-36.04827722661812,174.5682512214159</t>
+        </is>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>-36.04820536279797,174.5691227354827</t>
+        </is>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0111/nzd0111.xlsx
+++ b/data/nzd0111/nzd0111.xlsx
@@ -12055,7 +12055,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B553"/>
+  <dimension ref="A1:B555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17593,6 +17593,26 @@
       </c>
       <c r="B553" t="n">
         <v>-0.85</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>2025-07-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B554" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>0.26</v>
       </c>
     </row>
   </sheetData>

--- a/data/nzd0111/nzd0111.xlsx
+++ b/data/nzd0111/nzd0111.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H408"/>
+  <dimension ref="A1:H412"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12039,6 +12039,126 @@
         <v>396.3633333333333</v>
       </c>
       <c r="H408" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>398.38</v>
+      </c>
+      <c r="C409" t="n">
+        <v>385.1355555555555</v>
+      </c>
+      <c r="D409" t="n">
+        <v>377</v>
+      </c>
+      <c r="E409" t="n">
+        <v>380.13</v>
+      </c>
+      <c r="F409" t="n">
+        <v>373.19</v>
+      </c>
+      <c r="G409" t="n">
+        <v>375.8066666666667</v>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>401.22</v>
+      </c>
+      <c r="C410" t="n">
+        <v>374.7677777777778</v>
+      </c>
+      <c r="D410" t="n">
+        <v>372.81</v>
+      </c>
+      <c r="E410" t="n">
+        <v>381.47</v>
+      </c>
+      <c r="F410" t="n">
+        <v>370.11</v>
+      </c>
+      <c r="G410" t="n">
+        <v>376.8833333333333</v>
+      </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>397.31</v>
+      </c>
+      <c r="C411" t="n">
+        <v>380.1477777777778</v>
+      </c>
+      <c r="D411" t="n">
+        <v>370.01</v>
+      </c>
+      <c r="E411" t="n">
+        <v>382.97</v>
+      </c>
+      <c r="F411" t="n">
+        <v>371.36</v>
+      </c>
+      <c r="G411" t="n">
+        <v>379.0733333333333</v>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>386.81</v>
+      </c>
+      <c r="C412" t="n">
+        <v>374.8488888888889</v>
+      </c>
+      <c r="D412" t="n">
+        <v>371.46</v>
+      </c>
+      <c r="E412" t="n">
+        <v>374.83</v>
+      </c>
+      <c r="F412" t="n">
+        <v>365.64</v>
+      </c>
+      <c r="G412" t="n">
+        <v>371.1766666666667</v>
+      </c>
+      <c r="H412" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -12055,7 +12175,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B555"/>
+  <dimension ref="A1:B559"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17613,6 +17733,46 @@
       </c>
       <c r="B555" t="n">
         <v>0.26</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B557" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>
@@ -17786,28 +17946,28 @@
         <v>0.0549</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06176851804682688</v>
+        <v>0.05778839568632436</v>
       </c>
       <c r="J2" t="n">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="K2" t="n">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001694601615552127</v>
+        <v>0.001522960226406078</v>
       </c>
       <c r="M2" t="n">
-        <v>8.245160267287279</v>
+        <v>8.189174269401233</v>
       </c>
       <c r="N2" t="n">
-        <v>117.6353563457821</v>
+        <v>116.5329856730362</v>
       </c>
       <c r="O2" t="n">
-        <v>10.84598341994778</v>
+        <v>10.79504449611191</v>
       </c>
       <c r="P2" t="n">
-        <v>395.8255743123366</v>
+        <v>395.8660302641066</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -17864,28 +18024,28 @@
         <v>0.0473</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1137615221569259</v>
+        <v>0.09644422150057443</v>
       </c>
       <c r="J3" t="n">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="K3" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="L3" t="n">
-        <v>0.008443031559016267</v>
+        <v>0.006178796175361434</v>
       </c>
       <c r="M3" t="n">
-        <v>7.06481700735403</v>
+        <v>7.073534228928947</v>
       </c>
       <c r="N3" t="n">
-        <v>82.89094938886997</v>
+        <v>82.80612620570045</v>
       </c>
       <c r="O3" t="n">
-        <v>9.104446682191618</v>
+        <v>9.099787151670112</v>
       </c>
       <c r="P3" t="n">
-        <v>383.4496436143944</v>
+        <v>383.6193649055582</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -17942,28 +18102,28 @@
         <v>0.0576</v>
       </c>
       <c r="I4" t="n">
-        <v>0.190998529254433</v>
+        <v>0.160766948846445</v>
       </c>
       <c r="J4" t="n">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="K4" t="n">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02267025861466576</v>
+        <v>0.01619603226010402</v>
       </c>
       <c r="M4" t="n">
-        <v>7.63677718842788</v>
+        <v>7.7103788504807</v>
       </c>
       <c r="N4" t="n">
-        <v>86.7408316161857</v>
+        <v>87.82247817907323</v>
       </c>
       <c r="O4" t="n">
-        <v>9.313475807462309</v>
+        <v>9.371364798100286</v>
       </c>
       <c r="P4" t="n">
-        <v>381.3723073323989</v>
+        <v>381.6689760328934</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18020,28 +18180,28 @@
         <v>0.0442</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1266876802883437</v>
+        <v>0.105932855581161</v>
       </c>
       <c r="J5" t="n">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="K5" t="n">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="L5" t="n">
-        <v>0.009884772292082511</v>
+        <v>0.007020112523639654</v>
       </c>
       <c r="M5" t="n">
-        <v>7.39803833429559</v>
+        <v>7.413355621545532</v>
       </c>
       <c r="N5" t="n">
-        <v>87.87756322400011</v>
+        <v>87.98065409752188</v>
       </c>
       <c r="O5" t="n">
-        <v>9.374303346062582</v>
+        <v>9.379800322902502</v>
       </c>
       <c r="P5" t="n">
-        <v>386.1111895966232</v>
+        <v>386.3154364193005</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -18098,28 +18258,28 @@
         <v>0.054</v>
       </c>
       <c r="I6" t="n">
-        <v>0.004237522229387817</v>
+        <v>-0.0186959532218974</v>
       </c>
       <c r="J6" t="n">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="K6" t="n">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="L6" t="n">
-        <v>9.250690399698058e-06</v>
+        <v>0.0001824009864794807</v>
       </c>
       <c r="M6" t="n">
-        <v>7.810341830488688</v>
+        <v>7.839025306728389</v>
       </c>
       <c r="N6" t="n">
-        <v>105.7475616513904</v>
+        <v>105.8500096893737</v>
       </c>
       <c r="O6" t="n">
-        <v>10.28336334335174</v>
+        <v>10.28834338897053</v>
       </c>
       <c r="P6" t="n">
-        <v>380.5205309360551</v>
+        <v>380.7463656008426</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -18176,28 +18336,28 @@
         <v>0.0649</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05505583278630734</v>
+        <v>0.03578502651960937</v>
       </c>
       <c r="J7" t="n">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="K7" t="n">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001712206162579832</v>
+        <v>0.0007365236644969464</v>
       </c>
       <c r="M7" t="n">
-        <v>7.385015100358717</v>
+        <v>7.403267077839959</v>
       </c>
       <c r="N7" t="n">
-        <v>94.05184864857345</v>
+        <v>93.89781067044539</v>
       </c>
       <c r="O7" t="n">
-        <v>9.698033236103775</v>
+        <v>9.690088269486784</v>
       </c>
       <c r="P7" t="n">
-        <v>382.9043233340803</v>
+        <v>383.09366863397</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -18235,7 +18395,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H408"/>
+  <dimension ref="A1:H412"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34091,6 +34251,174 @@
         </is>
       </c>
     </row>
+    <row r="409">
+      <c r="A409" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>-36.047869181232635,174.56478322240682</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>-36.0481240561659,174.5656374586089</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>-36.048325478603395,174.56649946478998</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>-36.0483858059883,174.56737995737836</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>-36.04846846784434,174.56825951819198</t>
+        </is>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>-36.04838994301019,174.56914269651185</t>
+        </is>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>-36.04784399815917,174.56478888035906</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>-36.04821607975401,174.56561741785035</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>-36.048362869449186,174.56649291534782</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>-36.04837375318911,174.5673809233494</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>-36.048496212684825,174.56826072187414</t>
+        </is>
+      </c>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>-36.048380275520834,174.5691416510393</t>
+        </is>
+      </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>-36.047878669221504,174.5647810907127</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>-36.048168327293446,174.56562781731475</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>-36.048387856171665,174.56648853862922</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>-36.04836026124968,174.56738200465998</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>-36.048484952603474,174.5682602333666</t>
+        </is>
+      </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>-36.04836061130865,174.56913952449082</t>
+        </is>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>-36.047971775652265,174.56476017219393</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>-36.048215359818116,174.56561757463706</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>-36.04837491661896,174.56649080514453</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>-36.048433477507324,174.5673761367444</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>-36.048536478735514,174.5682624687786</t>
+        </is>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>-36.048431516207096,174.56914719237085</t>
+        </is>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0111/nzd0111.xlsx
+++ b/data/nzd0111/nzd0111.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H412"/>
+  <dimension ref="A1:H414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12159,6 +12159,62 @@
         <v>371.1766666666667</v>
       </c>
       <c r="H412" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-11 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr"/>
+      <c r="C413" t="n">
+        <v>621.2822222222221</v>
+      </c>
+      <c r="D413" t="n">
+        <v>630.38</v>
+      </c>
+      <c r="E413" t="n">
+        <v>642.97</v>
+      </c>
+      <c r="F413" t="n">
+        <v>639.7199999999999</v>
+      </c>
+      <c r="G413" t="n">
+        <v>635.6666666666666</v>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr"/>
+      <c r="C414" t="n">
+        <v>611.9633333333334</v>
+      </c>
+      <c r="D414" t="n">
+        <v>621.37</v>
+      </c>
+      <c r="E414" t="n">
+        <v>630.8099999999999</v>
+      </c>
+      <c r="F414" t="n">
+        <v>629.09</v>
+      </c>
+      <c r="G414" t="n">
+        <v>618.75</v>
+      </c>
+      <c r="H414" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -12175,7 +12231,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B559"/>
+  <dimension ref="A1:B561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17773,6 +17829,26 @@
       </c>
       <c r="B559" t="n">
         <v>-0.5</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>2025-09-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B561" t="n">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -17949,7 +18025,7 @@
         <v>0.05778839568632436</v>
       </c>
       <c r="J2" t="n">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K2" t="n">
         <v>311</v>
@@ -18024,28 +18100,28 @@
         <v>0.0473</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09644422150057443</v>
+        <v>0.3540407377533826</v>
       </c>
       <c r="J3" t="n">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K3" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L3" t="n">
-        <v>0.006178796175361434</v>
+        <v>0.01850380141408081</v>
       </c>
       <c r="M3" t="n">
-        <v>7.073534228928947</v>
+        <v>8.492233810966985</v>
       </c>
       <c r="N3" t="n">
-        <v>82.80612620570045</v>
+        <v>370.6580682198867</v>
       </c>
       <c r="O3" t="n">
-        <v>9.099787151670112</v>
+        <v>19.25248213140027</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6193649055582</v>
+        <v>381.0831180098071</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18102,28 +18178,28 @@
         <v>0.0576</v>
       </c>
       <c r="I4" t="n">
-        <v>0.160766948846445</v>
+        <v>0.4270681165934832</v>
       </c>
       <c r="J4" t="n">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K4" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01619603226010402</v>
+        <v>0.02477592191265976</v>
       </c>
       <c r="M4" t="n">
-        <v>7.7103788504807</v>
+        <v>9.080863950211754</v>
       </c>
       <c r="N4" t="n">
-        <v>87.82247817907323</v>
+        <v>404.3720936688522</v>
       </c>
       <c r="O4" t="n">
-        <v>9.371364798100286</v>
+        <v>20.10900528790154</v>
       </c>
       <c r="P4" t="n">
-        <v>381.6689760328934</v>
+        <v>379.0427086343304</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18180,28 +18256,28 @@
         <v>0.0442</v>
       </c>
       <c r="I5" t="n">
-        <v>0.105932855581161</v>
+        <v>0.3731047251727469</v>
       </c>
       <c r="J5" t="n">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K5" t="n">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L5" t="n">
-        <v>0.007020112523639654</v>
+        <v>0.01850205324882881</v>
       </c>
       <c r="M5" t="n">
-        <v>7.413355621545532</v>
+        <v>8.960553687843021</v>
       </c>
       <c r="N5" t="n">
-        <v>87.98065409752188</v>
+        <v>412.1166124443088</v>
       </c>
       <c r="O5" t="n">
-        <v>9.379800322902502</v>
+        <v>20.30065546834163</v>
       </c>
       <c r="P5" t="n">
-        <v>386.3154364193005</v>
+        <v>383.673436190023</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -18258,28 +18334,28 @@
         <v>0.054</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.0186959532218974</v>
+        <v>0.2551845612138624</v>
       </c>
       <c r="J6" t="n">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K6" t="n">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0001824009864794807</v>
+        <v>0.008077658239473262</v>
       </c>
       <c r="M6" t="n">
-        <v>7.839025306728389</v>
+        <v>9.325685529634432</v>
       </c>
       <c r="N6" t="n">
-        <v>105.8500096893737</v>
+        <v>444.8174111389092</v>
       </c>
       <c r="O6" t="n">
-        <v>10.28834338897053</v>
+        <v>21.09069489464274</v>
       </c>
       <c r="P6" t="n">
-        <v>380.7463656008426</v>
+        <v>378.0364587897446</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -18336,28 +18412,28 @@
         <v>0.0649</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03578502651960937</v>
+        <v>0.3059354847777997</v>
       </c>
       <c r="J7" t="n">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K7" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0007365236644969464</v>
+        <v>0.01254926042190507</v>
       </c>
       <c r="M7" t="n">
-        <v>7.403267077839959</v>
+        <v>8.769213520426995</v>
       </c>
       <c r="N7" t="n">
-        <v>93.89781067044539</v>
+        <v>401.0462451270952</v>
       </c>
       <c r="O7" t="n">
-        <v>9.690088269486784</v>
+        <v>20.02613904693301</v>
       </c>
       <c r="P7" t="n">
-        <v>383.09366863397</v>
+        <v>380.4272448572029</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -18395,7 +18471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H412"/>
+  <dimension ref="A1:H414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34419,6 +34495,82 @@
         </is>
       </c>
     </row>
+    <row r="413">
+      <c r="A413" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-11 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr"/>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>-36.0460280357801,174.5660939149824</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>-36.04606435787618,174.56689551597307</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>-36.046021657962086,174.56756942755433</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>-36.04606754766055,174.5681553612841</t>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>-36.04605663520583,174.56889037410176</t>
+        </is>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr"/>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>-36.04611074958514,174.5660759025879</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>-36.046144761635645,174.56688143304214</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>-36.046131032658955,174.56756066211926</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>-36.0461633034387,174.56815951519425</t>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>-36.046208531628544,174.56890679954606</t>
+        </is>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0111/nzd0111.xlsx
+++ b/data/nzd0111/nzd0111.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H414"/>
+  <dimension ref="A1:H413"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12167,54 +12167,26 @@
     <row r="413">
       <c r="A413" s="1" t="inlineStr">
         <is>
-          <t>2025-09-11 22:05:51+00:00</t>
+          <t>2025-10-04 22:12:06+00:00</t>
         </is>
       </c>
       <c r="B413" t="inlineStr"/>
       <c r="C413" t="n">
-        <v>621.2822222222221</v>
+        <v>360.1311111111111</v>
       </c>
       <c r="D413" t="n">
-        <v>630.38</v>
+        <v>365.92</v>
       </c>
       <c r="E413" t="n">
-        <v>642.97</v>
+        <v>373.7</v>
       </c>
       <c r="F413" t="n">
-        <v>639.7199999999999</v>
+        <v>368.42</v>
       </c>
       <c r="G413" t="n">
-        <v>635.6666666666666</v>
+        <v>366.6433333333333</v>
       </c>
       <c r="H413" t="inlineStr">
-        <is>
-          <t>L9</t>
-        </is>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" s="1" t="inlineStr">
-        <is>
-          <t>2025-09-27 22:05:54+00:00</t>
-        </is>
-      </c>
-      <c r="B414" t="inlineStr"/>
-      <c r="C414" t="n">
-        <v>611.9633333333334</v>
-      </c>
-      <c r="D414" t="n">
-        <v>621.37</v>
-      </c>
-      <c r="E414" t="n">
-        <v>630.8099999999999</v>
-      </c>
-      <c r="F414" t="n">
-        <v>629.09</v>
-      </c>
-      <c r="G414" t="n">
-        <v>618.75</v>
-      </c>
-      <c r="H414" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -12231,7 +12203,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B561"/>
+  <dimension ref="A1:B562"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17849,6 +17821,16 @@
       </c>
       <c r="B561" t="n">
         <v>0.6</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>-0.76</v>
       </c>
     </row>
   </sheetData>
@@ -18471,7 +18453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H414"/>
+  <dimension ref="A1:H413"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34498,74 +34480,36 @@
     <row r="413">
       <c r="A413" s="1" t="inlineStr">
         <is>
-          <t>2025-09-11 22:05:51+00:00</t>
+          <t>2025-10-04 22:12:06+00:00</t>
         </is>
       </c>
       <c r="B413" t="inlineStr"/>
       <c r="C413" t="inlineStr">
         <is>
-          <t>-36.0460280357801,174.5660939149824</t>
+          <t>-36.048345993661385,174.56558912532088</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>-36.04606435787618,174.56689551597307</t>
+          <t>-36.04842435463378,174.56648214548937</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>-36.046021657962086,174.56756942755433</t>
+          <t>-36.048443641434915,174.56737532215595</t>
         </is>
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>-36.04606754766055,174.5681553612841</t>
+          <t>-36.04851143631477,174.5682613823366</t>
         </is>
       </c>
       <c r="G413" t="inlineStr">
         <is>
-          <t>-36.04605663520583,174.56889037410176</t>
+          <t>-36.048472221424554,174.56915159436923</t>
         </is>
       </c>
       <c r="H413" t="inlineStr">
-        <is>
-          <t>L9</t>
-        </is>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" s="1" t="inlineStr">
-        <is>
-          <t>2025-09-27 22:05:54+00:00</t>
-        </is>
-      </c>
-      <c r="B414" t="inlineStr"/>
-      <c r="C414" t="inlineStr">
-        <is>
-          <t>-36.04611074958514,174.5660759025879</t>
-        </is>
-      </c>
-      <c r="D414" t="inlineStr">
-        <is>
-          <t>-36.046144761635645,174.56688143304214</t>
-        </is>
-      </c>
-      <c r="E414" t="inlineStr">
-        <is>
-          <t>-36.046131032658955,174.56756066211926</t>
-        </is>
-      </c>
-      <c r="F414" t="inlineStr">
-        <is>
-          <t>-36.0461633034387,174.56815951519425</t>
-        </is>
-      </c>
-      <c r="G414" t="inlineStr">
-        <is>
-          <t>-36.046208531628544,174.56890679954606</t>
-        </is>
-      </c>
-      <c r="H414" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0111/nzd0111.xlsx
+++ b/data/nzd0111/nzd0111.xlsx
@@ -18007,7 +18007,7 @@
         <v>0.05778839568632436</v>
       </c>
       <c r="J2" t="n">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K2" t="n">
         <v>311</v>
@@ -18082,28 +18082,28 @@
         <v>0.0473</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3540407377533826</v>
+        <v>0.08172590821220739</v>
       </c>
       <c r="J3" t="n">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K3" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01850380141408081</v>
+        <v>0.004375326112448064</v>
       </c>
       <c r="M3" t="n">
-        <v>8.492233810966985</v>
+        <v>7.128706996255559</v>
       </c>
       <c r="N3" t="n">
-        <v>370.6580682198867</v>
+        <v>84.43299648878194</v>
       </c>
       <c r="O3" t="n">
-        <v>19.25248213140027</v>
+        <v>9.188742922118452</v>
       </c>
       <c r="P3" t="n">
-        <v>381.0831180098071</v>
+        <v>383.7645407137572</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18160,28 +18160,28 @@
         <v>0.0576</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4270681165934832</v>
+        <v>0.1495604096420079</v>
       </c>
       <c r="J4" t="n">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K4" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02477592191265976</v>
+        <v>0.01396151833867643</v>
       </c>
       <c r="M4" t="n">
-        <v>9.080863950211754</v>
+        <v>7.748603795924009</v>
       </c>
       <c r="N4" t="n">
-        <v>404.3720936688522</v>
+        <v>88.68316679137948</v>
       </c>
       <c r="O4" t="n">
-        <v>20.10900528790154</v>
+        <v>9.417174034251437</v>
       </c>
       <c r="P4" t="n">
-        <v>379.0427086343304</v>
+        <v>381.779701040296</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18238,28 +18238,28 @@
         <v>0.0442</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3731047251727469</v>
+        <v>0.09753800610416179</v>
       </c>
       <c r="J5" t="n">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K5" t="n">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01850205324882881</v>
+        <v>0.005952032973374877</v>
       </c>
       <c r="M5" t="n">
-        <v>8.960553687843021</v>
+        <v>7.431410470790237</v>
       </c>
       <c r="N5" t="n">
-        <v>412.1166124443088</v>
+        <v>88.37555189009419</v>
       </c>
       <c r="O5" t="n">
-        <v>20.30065546834163</v>
+        <v>9.40082719180042</v>
       </c>
       <c r="P5" t="n">
-        <v>383.673436190023</v>
+        <v>386.398603521794</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -18316,28 +18316,28 @@
         <v>0.054</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2551845612138624</v>
+        <v>-0.02515419835528663</v>
       </c>
       <c r="J6" t="n">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K6" t="n">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L6" t="n">
-        <v>0.008077658239473262</v>
+        <v>0.0003310147407281638</v>
       </c>
       <c r="M6" t="n">
-        <v>9.325685529634432</v>
+        <v>7.850193537328297</v>
       </c>
       <c r="N6" t="n">
-        <v>444.8174111389092</v>
+        <v>105.9386314057844</v>
       </c>
       <c r="O6" t="n">
-        <v>21.09069489464274</v>
+        <v>10.2926493871007</v>
       </c>
       <c r="P6" t="n">
-        <v>378.0364587897446</v>
+        <v>380.8103828582613</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -18394,28 +18394,28 @@
         <v>0.0649</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3059354847777997</v>
+        <v>0.0260060716473186</v>
       </c>
       <c r="J7" t="n">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K7" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01254926042190507</v>
+        <v>0.0003883684589518488</v>
       </c>
       <c r="M7" t="n">
-        <v>8.769213520426995</v>
+        <v>7.434043314045662</v>
       </c>
       <c r="N7" t="n">
-        <v>401.0462451270952</v>
+        <v>94.44308771551216</v>
       </c>
       <c r="O7" t="n">
-        <v>20.02613904693301</v>
+        <v>9.718183354697119</v>
       </c>
       <c r="P7" t="n">
-        <v>380.4272448572029</v>
+        <v>383.1903551051773</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">

--- a/data/nzd0111/nzd0111.xlsx
+++ b/data/nzd0111/nzd0111.xlsx
@@ -17995,13 +17995,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0475</v>
+        <v>0.0353</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0549</v>
+        <v>0.0529</v>
       </c>
       <c r="I2" t="n">
         <v>0.05778839568632441</v>
@@ -18073,13 +18073,13 @@
         <v>0.2001567395207008</v>
       </c>
       <c r="F3" t="n">
-        <v>0.045</v>
+        <v>0.04</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0424</v>
+        <v>0.0332</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0473</v>
+        <v>0.0516</v>
       </c>
       <c r="I3" t="n">
         <v>0.08170323138260528</v>
@@ -18151,13 +18151,13 @@
         <v>0.4002522156823473</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0468</v>
+        <v>0.031</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0576</v>
+        <v>0.0495</v>
       </c>
       <c r="I4" t="n">
         <v>0.149560409642008</v>
@@ -18229,13 +18229,13 @@
         <v>0.6004089552072943</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04</v>
+        <v>0.055</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0395</v>
+        <v>0.0401</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0442</v>
+        <v>0.0793</v>
       </c>
       <c r="I5" t="n">
         <v>0.09753800610416179</v>
@@ -18307,13 +18307,13 @@
         <v>0.8005256191494806</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05</v>
+        <v>0.045</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0435</v>
+        <v>0.0351</v>
       </c>
       <c r="H6" t="n">
-        <v>0.054</v>
+        <v>0.0646</v>
       </c>
       <c r="I6" t="n">
         <v>-0.02515419835528659</v>
@@ -18385,13 +18385,13 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0539</v>
+        <v>0.0549</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0649</v>
+        <v>0.2</v>
       </c>
       <c r="I7" t="n">
         <v>0.02598921694093873</v>
